--- a/Lab-05/Photoresistor Data.xlsx
+++ b/Lab-05/Photoresistor Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>condition</t>
   </si>
@@ -57,10 +57,10 @@
     <t>Right photoresistor</t>
   </si>
   <si>
-    <t>On the table</t>
+    <t>On table</t>
   </si>
   <si>
-    <t>Under the table</t>
+    <t>Under table</t>
   </si>
 </sst>
 </file>
@@ -84,21 +84,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -148,20 +142,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -179,7 +175,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -191,131 +187,186 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -323,30 +374,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,6 +429,393 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Right on table</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.45886154855643047"/>
+                  <c:y val="-9.1623286672499277E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Distance and Angle of Incedence'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Distance and Angle of Incedence'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Left on table</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.47275043744531936"/>
+                  <c:y val="0.4928135024788568"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Distance and Angle of Incedence'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Distance and Angle of Incedence'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Right under table</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Distance and Angle of Incedence'!$B$8:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Distance and Angle of Incedence'!$G$8:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Left under table</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Distance and Angle of Incedence'!$B$8:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Distance and Angle of Incedence'!$D$8:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="60929536"/>
+        <c:axId val="60928000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60929536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60928000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60928000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60929536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,7 +1108,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,281 +1194,316 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21">
+        <v>6</v>
+      </c>
+      <c r="C3" s="18">
+        <v>802</v>
+      </c>
+      <c r="D3" s="15">
+        <v>872</v>
+      </c>
+      <c r="E3" s="29">
+        <v>836</v>
+      </c>
+      <c r="F3" s="32">
+        <v>895</v>
+      </c>
+      <c r="G3" s="8">
+        <v>893</v>
+      </c>
+      <c r="H3" s="9">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="22">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="C4" s="19">
+        <v>755</v>
+      </c>
+      <c r="D4" s="16">
+        <v>783</v>
+      </c>
+      <c r="E4" s="30">
+        <v>775</v>
+      </c>
+      <c r="F4" s="33">
+        <v>850</v>
+      </c>
+      <c r="G4" s="6">
+        <v>860</v>
+      </c>
+      <c r="H4" s="11">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9">
-        <v>3</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B5" s="22">
+        <v>18</v>
+      </c>
+      <c r="C5" s="19">
+        <v>759</v>
+      </c>
+      <c r="D5" s="16">
+        <v>753</v>
+      </c>
+      <c r="E5" s="30">
+        <v>739</v>
+      </c>
+      <c r="F5" s="33">
+        <v>824</v>
+      </c>
+      <c r="G5" s="6">
+        <v>822</v>
+      </c>
+      <c r="H5" s="11">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>900</v>
-      </c>
-      <c r="G3" s="12">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B6" s="22">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19">
+        <v>738</v>
+      </c>
+      <c r="D6" s="16">
+        <v>707</v>
+      </c>
+      <c r="E6" s="30">
+        <v>682</v>
+      </c>
+      <c r="F6" s="33">
+        <v>771</v>
+      </c>
+      <c r="G6" s="6">
+        <v>757</v>
+      </c>
+      <c r="H6" s="11">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="B7" s="23">
+        <v>30</v>
+      </c>
+      <c r="C7" s="20">
+        <v>696</v>
+      </c>
+      <c r="D7" s="17">
+        <v>659</v>
+      </c>
+      <c r="E7" s="31">
+        <v>648</v>
+      </c>
+      <c r="F7" s="34">
+        <v>748</v>
+      </c>
+      <c r="G7" s="13">
+        <v>765</v>
+      </c>
+      <c r="H7" s="14">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="21">
         <v>6</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>898</v>
-      </c>
-      <c r="G6" s="12">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7">
-        <v>9</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>898</v>
-      </c>
-      <c r="G9" s="12">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="17">
-        <v>9</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="C8" s="18">
+        <v>801</v>
+      </c>
+      <c r="D8" s="15">
+        <v>819</v>
+      </c>
+      <c r="E8" s="29">
+        <v>777</v>
+      </c>
+      <c r="F8" s="32">
+        <v>885</v>
+      </c>
+      <c r="G8" s="8">
+        <v>890</v>
+      </c>
+      <c r="H8" s="9">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9">
-        <v>3</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B9" s="22">
+        <v>12</v>
+      </c>
+      <c r="C9" s="19">
+        <v>660</v>
+      </c>
+      <c r="D9" s="16">
+        <v>731</v>
+      </c>
+      <c r="E9" s="30">
+        <v>724</v>
+      </c>
+      <c r="F9" s="33">
+        <v>786</v>
+      </c>
+      <c r="G9" s="6">
+        <v>802</v>
+      </c>
+      <c r="H9" s="11">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B10" s="22">
+        <v>18</v>
+      </c>
+      <c r="C10" s="19">
+        <v>525</v>
+      </c>
+      <c r="D10" s="16">
+        <v>617</v>
+      </c>
+      <c r="E10" s="30">
+        <v>610</v>
+      </c>
+      <c r="F10" s="35">
+        <v>695</v>
+      </c>
+      <c r="G10" s="27">
+        <v>718</v>
+      </c>
+      <c r="H10" s="28">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="B11" s="22">
+        <v>24</v>
+      </c>
+      <c r="C11" s="19">
+        <v>516</v>
+      </c>
+      <c r="D11" s="16">
+        <v>593</v>
+      </c>
+      <c r="E11" s="30">
+        <v>578</v>
+      </c>
+      <c r="F11" s="33">
+        <v>566</v>
+      </c>
+      <c r="G11" s="6">
+        <v>557</v>
+      </c>
+      <c r="H11" s="11">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
-        <v>6</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>6</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7">
-        <v>6</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7">
-        <v>9</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="14">
-        <v>9</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+      <c r="B12" s="23">
+        <v>30</v>
+      </c>
+      <c r="C12" s="20">
+        <v>390</v>
+      </c>
+      <c r="D12" s="17">
+        <v>475</v>
+      </c>
+      <c r="E12" s="31">
+        <v>495</v>
+      </c>
+      <c r="F12" s="34">
+        <v>563</v>
+      </c>
+      <c r="G12" s="13">
+        <v>588</v>
+      </c>
+      <c r="H12" s="14">
+        <v>648</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Lab-05/Photoresistor Data.xlsx
+++ b/Lab-05/Photoresistor Data.xlsx
@@ -399,6 +399,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,15 +417,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,6 +445,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sensor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> readout versus distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -469,10 +493,27 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.45886154855643047"/>
-                  <c:y val="-9.1623286672499277E-2"/>
+                  <c:x val="0.30810557917458214"/>
+                  <c:y val="-0.12808031180050156"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>right sensor = -5.9833x + 927.1
+R² = 0.9255</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -544,10 +585,27 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.47275043744531936"/>
-                  <c:y val="0.4928135024788568"/>
+                  <c:x val="0.31302409845810808"/>
+                  <c:y val="0.38556414156370572"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Left sensor = -8.3667x + 905.4
+R² = 0.9694</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -731,43 +789,94 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60929536"/>
-        <c:axId val="60928000"/>
+        <c:axId val="96781824"/>
+        <c:axId val="96783360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60929536"/>
+        <c:axId val="96781824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> to light (in)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60928000"/>
+        <c:crossAx val="96783360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60928000"/>
+        <c:axId val="96783360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sensor readout</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60929536"/>
+        <c:crossAx val="96781824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -788,15 +897,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>381001</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1183,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,16 +1309,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1250,10 +1359,10 @@
       <c r="D3" s="15">
         <v>872</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="26">
         <v>836</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="29">
         <v>895</v>
       </c>
       <c r="G3" s="8">
@@ -1276,10 +1385,10 @@
       <c r="D4" s="16">
         <v>783</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>775</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="30">
         <v>850</v>
       </c>
       <c r="G4" s="6">
@@ -1302,10 +1411,10 @@
       <c r="D5" s="16">
         <v>753</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <v>739</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="30">
         <v>824</v>
       </c>
       <c r="G5" s="6">
@@ -1328,10 +1437,10 @@
       <c r="D6" s="16">
         <v>707</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <v>682</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="30">
         <v>771</v>
       </c>
       <c r="G6" s="6">
@@ -1354,10 +1463,10 @@
       <c r="D7" s="17">
         <v>659</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="28">
         <v>648</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="31">
         <v>748</v>
       </c>
       <c r="G7" s="13">
@@ -1380,10 +1489,10 @@
       <c r="D8" s="15">
         <v>819</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <v>777</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="29">
         <v>885</v>
       </c>
       <c r="G8" s="8">
@@ -1406,10 +1515,10 @@
       <c r="D9" s="16">
         <v>731</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="27">
         <v>724</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="30">
         <v>786</v>
       </c>
       <c r="G9" s="6">
@@ -1432,16 +1541,16 @@
       <c r="D10" s="16">
         <v>617</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="27">
         <v>610</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="32">
         <v>695</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="24">
         <v>718</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="25">
         <v>718</v>
       </c>
     </row>
@@ -1458,10 +1567,10 @@
       <c r="D11" s="16">
         <v>593</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="27">
         <v>578</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="30">
         <v>566</v>
       </c>
       <c r="G11" s="6">
@@ -1484,10 +1593,10 @@
       <c r="D12" s="17">
         <v>475</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="28">
         <v>495</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="31">
         <v>563</v>
       </c>
       <c r="G12" s="13">
